--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.4630004188505</v>
+        <v>683.4660119003272</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.2624088999046</v>
+        <v>935.1483498744244</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.5461368926506</v>
+        <v>845.8991038513609</v>
       </c>
       <c r="AD2" t="n">
-        <v>610463.0004188505</v>
+        <v>683466.0119003272</v>
       </c>
       <c r="AE2" t="n">
-        <v>835262.4088999046</v>
+        <v>935148.3498744244</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344208291920199e-06</v>
+        <v>2.487137273179165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30497685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>755546.1368926505</v>
+        <v>845899.1038513609</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.3507166829576</v>
+        <v>423.0478677916496</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.2031657536601</v>
+        <v>578.8327562672553</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.3192144957881</v>
+        <v>523.5897704059835</v>
       </c>
       <c r="AD3" t="n">
-        <v>374350.7166829575</v>
+        <v>423047.8677916496</v>
       </c>
       <c r="AE3" t="n">
-        <v>512203.16575366</v>
+        <v>578832.7562672553</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.878057765933437e-06</v>
+        <v>3.474898569599022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>463319.2144957881</v>
+        <v>523589.7704059835</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.0214587936159</v>
+        <v>364.6332690477364</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.3945018042195</v>
+        <v>498.9073251956173</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.1273774215189</v>
+        <v>451.2923102997755</v>
       </c>
       <c r="AD4" t="n">
-        <v>316021.4587936159</v>
+        <v>364633.2690477364</v>
       </c>
       <c r="AE4" t="n">
-        <v>432394.5018042196</v>
+        <v>498907.3251956173</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.086975936875361e-06</v>
+        <v>3.861451883633275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.280092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>391127.3774215189</v>
+        <v>451292.3102997754</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.9300777296115</v>
+        <v>329.6271393297526</v>
       </c>
       <c r="AB5" t="n">
-        <v>384.3809261099772</v>
+        <v>451.0103941540242</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.6961500040583</v>
+        <v>407.9665951330271</v>
       </c>
       <c r="AD5" t="n">
-        <v>280930.0777296115</v>
+        <v>329627.1393297526</v>
       </c>
       <c r="AE5" t="n">
-        <v>384380.9261099772</v>
+        <v>451010.3941540242</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.195531457070675e-06</v>
+        <v>4.062308017396172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>347696.1500040583</v>
+        <v>407966.5951330271</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.6685811938028</v>
+        <v>313.3656427939438</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.1312291430885</v>
+        <v>428.7606971871356</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.5699328880436</v>
+        <v>387.8403780170125</v>
       </c>
       <c r="AD6" t="n">
-        <v>264668.5811938028</v>
+        <v>313365.6427939438</v>
       </c>
       <c r="AE6" t="n">
-        <v>362131.2291430886</v>
+        <v>428760.6971871356</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.265590994535865e-06</v>
+        <v>4.191936504304591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.707175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>327569.9328880436</v>
+        <v>387840.3780170125</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>252.0213331678578</v>
+        <v>288.6934758634671</v>
       </c>
       <c r="AB7" t="n">
-        <v>344.8267064366236</v>
+        <v>395.0031499336718</v>
       </c>
       <c r="AC7" t="n">
-        <v>311.9169295417372</v>
+        <v>357.3046036944042</v>
       </c>
       <c r="AD7" t="n">
-        <v>252021.3331678578</v>
+        <v>288693.4758634671</v>
       </c>
       <c r="AE7" t="n">
-        <v>344826.7064366236</v>
+        <v>395003.1499336718</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.312017254745182e-06</v>
+        <v>4.277837240756648e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>311916.9295417372</v>
+        <v>357304.6036944042</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>250.0349635084753</v>
+        <v>286.7071062040845</v>
       </c>
       <c r="AB8" t="n">
-        <v>342.1088678362132</v>
+        <v>392.2853113332601</v>
       </c>
       <c r="AC8" t="n">
-        <v>309.4584776428387</v>
+        <v>354.8461517955053</v>
       </c>
       <c r="AD8" t="n">
-        <v>250034.9635084753</v>
+        <v>286707.1062040845</v>
       </c>
       <c r="AE8" t="n">
-        <v>342108.8678362132</v>
+        <v>392285.3113332601</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.323466264615805e-06</v>
+        <v>4.299020906533286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>309458.4776428387</v>
+        <v>354846.1517955053</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.7458855700604</v>
+        <v>514.5644462336465</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.5716267264123</v>
+        <v>704.0497763180891</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.0588258599176</v>
+        <v>636.8562538063571</v>
       </c>
       <c r="AD2" t="n">
-        <v>455745.8855700603</v>
+        <v>514564.4462336466</v>
       </c>
       <c r="AE2" t="n">
-        <v>623571.6267264123</v>
+        <v>704049.7763180891</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.591040687719643e-06</v>
+        <v>3.032769099919288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.88136574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>564058.8258599177</v>
+        <v>636856.2538063572</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.9713186197239</v>
+        <v>351.0261671505928</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.9069684036355</v>
+        <v>480.2894880769769</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.2133910682881</v>
+        <v>434.4513334254397</v>
       </c>
       <c r="AD3" t="n">
-        <v>303971.3186197239</v>
+        <v>351026.1671505928</v>
       </c>
       <c r="AE3" t="n">
-        <v>415906.9684036355</v>
+        <v>480289.4880769768</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086145819602488e-06</v>
+        <v>3.976515892050566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>376213.3910682881</v>
+        <v>434451.3334254397</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.2618788735051</v>
+        <v>304.2313865498056</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.9970522676462</v>
+        <v>416.2628048189607</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.4029476302928</v>
+        <v>376.5352669555543</v>
       </c>
       <c r="AD4" t="n">
-        <v>257261.8788735051</v>
+        <v>304231.3865498056</v>
       </c>
       <c r="AE4" t="n">
-        <v>351997.0522676462</v>
+        <v>416262.8048189607</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.27537562036491e-06</v>
+        <v>4.337217096592785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>318402.9476302928</v>
+        <v>376535.2669555543</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.2218927676965</v>
+        <v>284.1914004439968</v>
       </c>
       <c r="AB5" t="n">
-        <v>324.5774591759024</v>
+        <v>388.8432117272029</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.6002420195758</v>
+        <v>351.7325613448331</v>
       </c>
       <c r="AD5" t="n">
-        <v>237221.8927676966</v>
+        <v>284191.4004439968</v>
       </c>
       <c r="AE5" t="n">
-        <v>324577.4591759024</v>
+        <v>388843.2117272029</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372245196810329e-06</v>
+        <v>4.521865459411841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.626157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>293600.2420195758</v>
+        <v>351732.5613448331</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.0992290639763</v>
+        <v>266.4757063167025</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.2001605836176</v>
+        <v>364.6038174609738</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.0224610473235</v>
+        <v>329.8065408471694</v>
       </c>
       <c r="AD6" t="n">
-        <v>231099.2290639763</v>
+        <v>266475.7063167025</v>
       </c>
       <c r="AE6" t="n">
-        <v>316200.1605836176</v>
+        <v>364603.8174609738</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.401202843610896e-06</v>
+        <v>4.57706320331681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.548032407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>286022.4610473235</v>
+        <v>329806.5408471694</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4190,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>231.9565319726967</v>
+        <v>267.3330092254229</v>
       </c>
       <c r="AB7" t="n">
-        <v>317.3731602448632</v>
+        <v>365.77681712222</v>
       </c>
       <c r="AC7" t="n">
-        <v>287.0835112672157</v>
+        <v>330.8675910670617</v>
       </c>
       <c r="AD7" t="n">
-        <v>231956.5319726967</v>
+        <v>267333.0092254229</v>
       </c>
       <c r="AE7" t="n">
-        <v>317373.1602448632</v>
+        <v>365776.81712222</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.400550889086305e-06</v>
+        <v>4.575820477375235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.548032407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>287083.5112672157</v>
+        <v>330867.5910670616</v>
       </c>
     </row>
   </sheetData>
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.782128848711</v>
+        <v>259.465306612885</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.9791165601035</v>
+        <v>355.0118793092034</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.5404078920119</v>
+        <v>321.1300438102343</v>
       </c>
       <c r="AD2" t="n">
-        <v>217782.128848711</v>
+        <v>259465.306612885</v>
       </c>
       <c r="AE2" t="n">
-        <v>297979.1165601035</v>
+        <v>355011.8793092034</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.398522246160629e-06</v>
+        <v>5.10822468401241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.314814814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>269540.4078920119</v>
+        <v>321130.0438102343</v>
       </c>
     </row>
     <row r="3">
@@ -4593,28 +4593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.6475398210332</v>
+        <v>227.4159689312245</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0111541744436</v>
+        <v>311.1605615760203</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.7686861270026</v>
+        <v>281.4638342958881</v>
       </c>
       <c r="AD3" t="n">
-        <v>185647.5398210332</v>
+        <v>227415.9689312245</v>
       </c>
       <c r="AE3" t="n">
-        <v>254011.1541744436</v>
+        <v>311160.5615760203</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.578211355897261e-06</v>
+        <v>5.490915462584161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.802662037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>229768.6861270026</v>
+        <v>281463.8342958881</v>
       </c>
     </row>
   </sheetData>
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.6170817816383</v>
+        <v>337.4190146204191</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.7398447650767</v>
+        <v>461.671581679991</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.3983578261104</v>
+        <v>417.6102938845864</v>
       </c>
       <c r="AD2" t="n">
-        <v>293617.0817816383</v>
+        <v>337419.0146204191</v>
       </c>
       <c r="AE2" t="n">
-        <v>401739.8447650766</v>
+        <v>461671.581679991</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.071533969783983e-06</v>
+        <v>4.205930153544275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>363398.3578261104</v>
+        <v>417610.2938845864</v>
       </c>
     </row>
     <row r="3">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.3597984589909</v>
+        <v>252.1616417892201</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.0870684370157</v>
+        <v>345.0186828823508</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.8787587476843</v>
+        <v>312.090584024925</v>
       </c>
       <c r="AD3" t="n">
-        <v>208359.7984589909</v>
+        <v>252161.6417892201</v>
       </c>
       <c r="AE3" t="n">
-        <v>285087.0684370157</v>
+        <v>345018.6828823509</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479426304446919e-06</v>
+        <v>5.03409261420492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.767939814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>257878.7587476844</v>
+        <v>312090.584024925</v>
       </c>
     </row>
     <row r="4">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.9366925542976</v>
+        <v>245.7385358845268</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.2986915707854</v>
+        <v>336.2303060161205</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.9291322349999</v>
+        <v>304.1409575122404</v>
       </c>
       <c r="AD4" t="n">
-        <v>201936.6925542976</v>
+        <v>245738.5358845268</v>
       </c>
       <c r="AE4" t="n">
-        <v>276298.6915707854</v>
+        <v>336230.3060161205</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.524373917039521e-06</v>
+        <v>5.125351807580718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.646412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>249929.1322349999</v>
+        <v>304140.9575122404</v>
       </c>
     </row>
   </sheetData>
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.0479131005333</v>
+        <v>214.1874675000645</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.8224743249066</v>
+        <v>293.0607423176215</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.7888908104732</v>
+        <v>265.0914363842492</v>
       </c>
       <c r="AD2" t="n">
-        <v>184047.9131005334</v>
+        <v>214187.4675000645</v>
       </c>
       <c r="AE2" t="n">
-        <v>251822.4743249066</v>
+        <v>293060.7423176215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576759780154391e-06</v>
+        <v>5.73794072727062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.06886574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>227788.8908104732</v>
+        <v>265091.4363842492</v>
       </c>
     </row>
     <row r="3">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.1143924939585</v>
+        <v>215.2539468934897</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.2816784807405</v>
+        <v>294.5199464734553</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.1088305696807</v>
+        <v>266.4113761434567</v>
       </c>
       <c r="AD3" t="n">
-        <v>185114.3924939586</v>
+        <v>215253.9468934897</v>
       </c>
       <c r="AE3" t="n">
-        <v>253281.6784807405</v>
+        <v>294519.9464734553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.577137558008536e-06</v>
+        <v>5.738781964762705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.06886574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>229108.8305696807</v>
+        <v>266411.3761434567</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.6636489381214</v>
+        <v>555.9645492300599</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.5571157309109</v>
+        <v>760.6952236814221</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.7011383699542</v>
+        <v>688.0955391757183</v>
       </c>
       <c r="AD2" t="n">
-        <v>496663.6489381213</v>
+        <v>555964.54923006</v>
       </c>
       <c r="AE2" t="n">
-        <v>679557.1157309109</v>
+        <v>760695.2236814222</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526891249449441e-06</v>
+        <v>2.886990500397118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>614701.1383699542</v>
+        <v>688095.5391757183</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.0237062219143</v>
+        <v>366.5326275322818</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.5023091854262</v>
+        <v>501.5061112679546</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.843141431607</v>
+        <v>453.6430718767882</v>
       </c>
       <c r="AD3" t="n">
-        <v>319023.7062219143</v>
+        <v>366532.6275322817</v>
       </c>
       <c r="AE3" t="n">
-        <v>436502.3091854262</v>
+        <v>501506.1112679546</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.026217369813138e-06</v>
+        <v>3.831098187575188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.688078703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>394843.141431607</v>
+        <v>453643.0718767882</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.7440232213912</v>
+        <v>316.1676036771869</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.707428721048</v>
+        <v>432.5944636813786</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.6139478045278</v>
+        <v>391.3082552177701</v>
       </c>
       <c r="AD4" t="n">
-        <v>268744.0232213911</v>
+        <v>316167.6036771869</v>
       </c>
       <c r="AE4" t="n">
-        <v>367707.4287210479</v>
+        <v>432594.4636813786</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225915513055424e-06</v>
+        <v>4.208680181509138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.999421296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>332613.9478045278</v>
+        <v>391308.2552177701</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.9294032886058</v>
+        <v>294.3529837444046</v>
       </c>
       <c r="AB5" t="n">
-        <v>337.8597033357426</v>
+        <v>402.7467382962368</v>
       </c>
       <c r="AC5" t="n">
-        <v>305.6148474385517</v>
+        <v>364.3091548518405</v>
       </c>
       <c r="AD5" t="n">
-        <v>246929.4032886058</v>
+        <v>294352.9837444046</v>
       </c>
       <c r="AE5" t="n">
-        <v>337859.7033357425</v>
+        <v>402746.7382962368</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331606388004091e-06</v>
+        <v>4.408516647967036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.68113425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>305614.8474385517</v>
+        <v>364309.1548518405</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.0350523851525</v>
+        <v>272.7520842225027</v>
       </c>
       <c r="AB6" t="n">
-        <v>324.3218159216899</v>
+        <v>373.1914346059405</v>
       </c>
       <c r="AC6" t="n">
-        <v>293.3689969987477</v>
+        <v>337.5745678646169</v>
       </c>
       <c r="AD6" t="n">
-        <v>237035.0523851525</v>
+        <v>272752.0842225027</v>
       </c>
       <c r="AE6" t="n">
-        <v>324321.8159216899</v>
+        <v>373191.4346059405</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.374087335703785e-06</v>
+        <v>4.488838080486284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>293368.9969987476</v>
+        <v>337574.5678646169</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>235.9019099934403</v>
+        <v>271.6189418307904</v>
       </c>
       <c r="AB7" t="n">
-        <v>322.7714005106359</v>
+        <v>371.6410191948857</v>
       </c>
       <c r="AC7" t="n">
-        <v>291.9665510585024</v>
+        <v>336.1721219243715</v>
       </c>
       <c r="AD7" t="n">
-        <v>235901.9099934403</v>
+        <v>271618.9418307904</v>
       </c>
       <c r="AE7" t="n">
-        <v>322771.4005106359</v>
+        <v>371641.0191948857</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.383671123651244e-06</v>
+        <v>4.506958758545126e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>291966.5510585025</v>
+        <v>336172.1219243715</v>
       </c>
     </row>
   </sheetData>
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.5461463454272</v>
+        <v>216.5739100840296</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.9264702128696</v>
+        <v>296.3259783434173</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.7419088452661</v>
+        <v>268.0450428665317</v>
       </c>
       <c r="AD2" t="n">
-        <v>177546.1463454273</v>
+        <v>216573.9100840296</v>
       </c>
       <c r="AE2" t="n">
-        <v>242926.4702128696</v>
+        <v>296325.9783434173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.556400690963716e-06</v>
+        <v>5.86071921913885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.294560185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>219741.9088452661</v>
+        <v>268045.0428665317</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.6250991772101</v>
+        <v>419.5162116559235</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.1596585845612</v>
+        <v>574.0005885366824</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.8068771337042</v>
+        <v>519.2187779816264</v>
       </c>
       <c r="AD2" t="n">
-        <v>362625.0991772101</v>
+        <v>419516.2116559235</v>
       </c>
       <c r="AE2" t="n">
-        <v>496159.6585845612</v>
+        <v>574000.5885366823</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.8144706379388e-06</v>
+        <v>3.556337374495258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.92650462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>448806.8771337043</v>
+        <v>519218.7779816264</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.555377030139</v>
+        <v>295.741338538661</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.8716058614893</v>
+        <v>404.6463465756291</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.7168420740215</v>
+        <v>366.0274671831646</v>
       </c>
       <c r="AD3" t="n">
-        <v>261555.377030139</v>
+        <v>295741.338538661</v>
       </c>
       <c r="AE3" t="n">
-        <v>357871.6058614894</v>
+        <v>404646.3465756291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.271069033547832e-06</v>
+        <v>4.451263919729187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.132523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>323716.8420740215</v>
+        <v>366027.4671831646</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.3426650141159</v>
+        <v>266.838486826175</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.8507992213776</v>
+        <v>365.1001897587805</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.9471439975451</v>
+        <v>330.2555400695363</v>
       </c>
       <c r="AD4" t="n">
-        <v>221342.6650141159</v>
+        <v>266838.486826175</v>
       </c>
       <c r="AE4" t="n">
-        <v>302850.7992213776</v>
+        <v>365100.1897587805</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.435807182165876e-06</v>
+        <v>4.774148414350182e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.649305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>273947.1439975451</v>
+        <v>330255.5400695363</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.0494857488793</v>
+        <v>251.3206986034215</v>
       </c>
       <c r="AB5" t="n">
-        <v>296.9766819489819</v>
+        <v>343.8680673157468</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.6336442332497</v>
+        <v>311.0497815930981</v>
       </c>
       <c r="AD5" t="n">
-        <v>217049.4857488793</v>
+        <v>251320.6986034215</v>
       </c>
       <c r="AE5" t="n">
-        <v>296976.6819489819</v>
+        <v>343868.0673157469</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465698507807071e-06</v>
+        <v>4.83273499951077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>268633.6442332497</v>
+        <v>311049.7815930981</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.4942960740161</v>
+        <v>484.7236824040391</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.5483114888741</v>
+        <v>663.2203267648325</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.8552796555743</v>
+        <v>599.923509613971</v>
       </c>
       <c r="AD2" t="n">
-        <v>426494.2960740161</v>
+        <v>484723.6824040391</v>
       </c>
       <c r="AE2" t="n">
-        <v>583548.3114888741</v>
+        <v>663220.3267648325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.663411833293787e-06</v>
+        <v>3.198247057241471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.539930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>527855.2796555744</v>
+        <v>599923.509613971</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.7869401888333</v>
+        <v>336.1998570522595</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.4992760638794</v>
+        <v>460.003476509799</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.657941646571</v>
+        <v>416.1013903306372</v>
       </c>
       <c r="AD3" t="n">
-        <v>289786.9401888333</v>
+        <v>336199.8570522594</v>
       </c>
       <c r="AE3" t="n">
-        <v>396499.2760638794</v>
+        <v>460003.476509799</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144133410623077e-06</v>
+        <v>4.122531915190019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>358657.941646571</v>
+        <v>416101.3903306372</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.0667326810787</v>
+        <v>291.5649008905284</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.3111152352976</v>
+        <v>398.9319603340288</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.3094930094466</v>
+        <v>360.8584539442713</v>
       </c>
       <c r="AD4" t="n">
-        <v>245066.7326810787</v>
+        <v>291564.9008905284</v>
       </c>
       <c r="AE4" t="n">
-        <v>335311.1152352976</v>
+        <v>398931.9603340288</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327317673975026e-06</v>
+        <v>4.474740862771097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.820023148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>303309.4930094466</v>
+        <v>360858.4539442713</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.2079283565551</v>
+        <v>262.2309010091432</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.8759112836553</v>
+        <v>358.7958875715777</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.2063506279172</v>
+        <v>324.5529116349364</v>
       </c>
       <c r="AD5" t="n">
-        <v>227207.9283565551</v>
+        <v>262230.9010091432</v>
       </c>
       <c r="AE5" t="n">
-        <v>310875.9112836553</v>
+        <v>358795.8875715777</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416715982137802e-06</v>
+        <v>4.646627265333119e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.565393518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>281206.3506279172</v>
+        <v>324552.9116349365</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.56507448079</v>
+        <v>261.5880471333782</v>
       </c>
       <c r="AB6" t="n">
-        <v>309.9963302501226</v>
+        <v>357.9163065380445</v>
       </c>
       <c r="AC6" t="n">
-        <v>280.4107155737248</v>
+        <v>323.757276580744</v>
       </c>
       <c r="AD6" t="n">
-        <v>226565.07448079</v>
+        <v>261588.0471333782</v>
       </c>
       <c r="AE6" t="n">
-        <v>309996.3302501226</v>
+        <v>357916.3065380445</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.422529614447775e-06</v>
+        <v>4.657805154088687e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>280410.7155737248</v>
+        <v>323757.276580744</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.8083304242648</v>
+        <v>635.2801222059103</v>
       </c>
       <c r="AB2" t="n">
-        <v>770.0591870376505</v>
+        <v>869.2182897831021</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.5658190116332</v>
+        <v>786.261316161734</v>
       </c>
       <c r="AD2" t="n">
-        <v>562808.3304242648</v>
+        <v>635280.1222059103</v>
       </c>
       <c r="AE2" t="n">
-        <v>770059.1870376505</v>
+        <v>869218.2897831021</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401486643483282e-06</v>
+        <v>2.610863319058832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92881944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>696565.8190116332</v>
+        <v>786261.3161617341</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.1408409155475</v>
+        <v>407.4344364032519</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.9734133136918</v>
+        <v>557.4697706256709</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.6426173764047</v>
+        <v>504.2656381308933</v>
       </c>
       <c r="AD3" t="n">
-        <v>347140.8409155475</v>
+        <v>407434.436403252</v>
       </c>
       <c r="AE3" t="n">
-        <v>474973.4133136917</v>
+        <v>557469.7706256709</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.926369172384723e-06</v>
+        <v>3.588679659939255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>429642.6173764047</v>
+        <v>504265.6381308932</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.4601404967827</v>
+        <v>340.7387963234424</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.5757960611267</v>
+        <v>466.2138534644998</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.8183867528538</v>
+        <v>421.7190576251001</v>
       </c>
       <c r="AD4" t="n">
-        <v>304460.1404967827</v>
+        <v>340738.7963234424</v>
       </c>
       <c r="AE4" t="n">
-        <v>416575.7960611267</v>
+        <v>466213.8534644998</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.128857893821738e-06</v>
+        <v>3.965900789930946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.196180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>376818.3867528538</v>
+        <v>421719.0576251001</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.3587247064517</v>
+        <v>318.6448056093582</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.9167345285097</v>
+        <v>435.9838806514117</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.6124005665056</v>
+        <v>394.3741909892598</v>
       </c>
       <c r="AD5" t="n">
-        <v>270358.7247064516</v>
+        <v>318644.8056093582</v>
       </c>
       <c r="AE5" t="n">
-        <v>369916.7345285097</v>
+        <v>435983.8806514117</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.236110743398573e-06</v>
+        <v>4.16570471394746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.848958333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>334612.4005665056</v>
+        <v>394374.1909892598</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.419699120769</v>
+        <v>302.7057800236787</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.1082565418333</v>
+        <v>414.175402664904</v>
       </c>
       <c r="AC6" t="n">
-        <v>314.8852931105912</v>
+        <v>374.6470835333934</v>
       </c>
       <c r="AD6" t="n">
-        <v>254419.699120769</v>
+        <v>302705.7800236787</v>
       </c>
       <c r="AE6" t="n">
-        <v>348108.2565418333</v>
+        <v>414175.402664904</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.307100906914139e-06</v>
+        <v>4.2979540042269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>314885.2931105912</v>
+        <v>374647.0835333933</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.2244635103857</v>
+        <v>282.588370683069</v>
       </c>
       <c r="AB7" t="n">
-        <v>336.8951736314342</v>
+        <v>386.6498756876197</v>
       </c>
       <c r="AC7" t="n">
-        <v>304.7423710954963</v>
+        <v>349.7485542185012</v>
       </c>
       <c r="AD7" t="n">
-        <v>246224.4635103857</v>
+        <v>282588.370683069</v>
       </c>
       <c r="AE7" t="n">
-        <v>336895.1736314342</v>
+        <v>386649.8756876197</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.337593326142302e-06</v>
+        <v>4.354759068508002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.553819444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>304742.3710954963</v>
+        <v>349748.5542185012</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>246.4483623354198</v>
+        <v>282.8122695081032</v>
       </c>
       <c r="AB8" t="n">
-        <v>337.2015218815647</v>
+        <v>386.9562239377503</v>
       </c>
       <c r="AC8" t="n">
-        <v>305.019481898597</v>
+        <v>350.0256650216019</v>
       </c>
       <c r="AD8" t="n">
-        <v>246448.3623354198</v>
+        <v>282812.2695081031</v>
       </c>
       <c r="AE8" t="n">
-        <v>337201.5218815647</v>
+        <v>386956.2239377503</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.336693376269248e-06</v>
+        <v>4.353082530152483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.556712962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>305019.481898597</v>
+        <v>350025.6650216019</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.7601849737497</v>
+        <v>360.1568675841652</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.0370154372911</v>
+        <v>492.7825152282645</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.8040090517148</v>
+        <v>445.752043599482</v>
       </c>
       <c r="AD2" t="n">
-        <v>315760.1849737497</v>
+        <v>360156.8675841652</v>
       </c>
       <c r="AE2" t="n">
-        <v>432037.0154372911</v>
+        <v>492782.5152282644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981006128025973e-06</v>
+        <v>3.970921543796251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.365162037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>390804.0090517148</v>
+        <v>445752.043599482</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.419398099172</v>
+        <v>266.8159912010394</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.3240329304618</v>
+        <v>365.069410252033</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.2797743491313</v>
+        <v>330.2276981157136</v>
       </c>
       <c r="AD3" t="n">
-        <v>222419.398099172</v>
+        <v>266815.9912010393</v>
       </c>
       <c r="AE3" t="n">
-        <v>304324.0329304619</v>
+        <v>365069.410252033</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.407732831117085e-06</v>
+        <v>4.826294091435045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.883680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>275279.7743491313</v>
+        <v>330227.6981157135</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.1533926098886</v>
+        <v>251.5499857117526</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.436410731405</v>
+        <v>344.1817880527986</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.3856374967839</v>
+        <v>311.3335612633156</v>
       </c>
       <c r="AD4" t="n">
-        <v>207153.3926098886</v>
+        <v>251549.9857117526</v>
       </c>
       <c r="AE4" t="n">
-        <v>283436.410731405</v>
+        <v>344181.7880527986</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.503146424909836e-06</v>
+        <v>5.01755038782026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>256385.6374967839</v>
+        <v>311333.5612633156</v>
       </c>
     </row>
   </sheetData>
@@ -9704,28 +9704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.6723013674741</v>
+        <v>282.2532973949653</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.9302163265143</v>
+        <v>386.191413632446</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.6330167333584</v>
+        <v>349.3338471384178</v>
       </c>
       <c r="AD2" t="n">
-        <v>239672.3013674741</v>
+        <v>282253.2973949653</v>
       </c>
       <c r="AE2" t="n">
-        <v>327930.2163265143</v>
+        <v>386191.413632446</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275991939134893e-06</v>
+        <v>4.761517472465034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.583912037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>296633.0167333584</v>
+        <v>349333.8471384178</v>
       </c>
     </row>
     <row r="3">
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1669061461315</v>
+        <v>233.6625613190476</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.5629946776965</v>
+        <v>319.7074248612422</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5997895717022</v>
+        <v>289.1949969447691</v>
       </c>
       <c r="AD3" t="n">
-        <v>191166.9061461315</v>
+        <v>233662.5613190476</v>
       </c>
       <c r="AE3" t="n">
-        <v>261562.9946776965</v>
+        <v>319707.4248612422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562288112653499e-06</v>
+        <v>5.360466971832276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.736111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>236599.7895717022</v>
+        <v>289194.9969447691</v>
       </c>
     </row>
     <row r="4">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.0571609486228</v>
+        <v>234.5528161215388</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.7810805737344</v>
+        <v>320.9255107572801</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.701623059417</v>
+        <v>290.2968304324838</v>
       </c>
       <c r="AD4" t="n">
-        <v>192057.1609486228</v>
+        <v>234552.8161215388</v>
       </c>
       <c r="AE4" t="n">
-        <v>262781.0805737344</v>
+        <v>320925.5107572801</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.562526742512652e-06</v>
+        <v>5.360966200421038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.736111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>237701.6230594169</v>
+        <v>290296.8304324838</v>
       </c>
     </row>
   </sheetData>
@@ -17546,28 +17546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.6805485810674</v>
+        <v>227.4767936983</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.1070035019089</v>
+        <v>311.2437847057324</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.423808781817</v>
+        <v>281.5391147269048</v>
       </c>
       <c r="AD2" t="n">
-        <v>196680.5485810674</v>
+        <v>227476.7936983001</v>
       </c>
       <c r="AE2" t="n">
-        <v>269107.0035019089</v>
+        <v>311243.7847057324</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.524119348994404e-06</v>
+        <v>5.487071410618735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>243423.808781817</v>
+        <v>281539.1147269048</v>
       </c>
     </row>
     <row r="3">
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.7535238746631</v>
+        <v>221.7297238316669</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.3149456478779</v>
+        <v>303.3803901713805</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.7115543440226</v>
+        <v>274.4261915305655</v>
       </c>
       <c r="AD3" t="n">
-        <v>180753.5238746631</v>
+        <v>221729.7238316669</v>
       </c>
       <c r="AE3" t="n">
-        <v>247314.9456478779</v>
+        <v>303380.3901713805</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.580092949873061e-06</v>
+        <v>5.608749945848466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>223711.5543440226</v>
+        <v>274426.1915305655</v>
       </c>
     </row>
   </sheetData>
@@ -17949,28 +17949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1258013850375</v>
+        <v>209.1753107491992</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1418709924395</v>
+        <v>286.2028883303412</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.7956994451686</v>
+        <v>258.8880863564543</v>
       </c>
       <c r="AD2" t="n">
-        <v>171125.8013850375</v>
+        <v>209175.3107491992</v>
       </c>
       <c r="AE2" t="n">
-        <v>234141.8709924395</v>
+        <v>286202.8883303412</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482819012085948e-06</v>
+        <v>5.90545196579413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>211795.6994451686</v>
+        <v>258888.0863564543</v>
       </c>
     </row>
   </sheetData>
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.7365634169226</v>
+        <v>458.1822527220983</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.3054453164737</v>
+        <v>626.9051717487635</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.9759431669943</v>
+        <v>567.0742220239953</v>
       </c>
       <c r="AD2" t="n">
-        <v>400736.5634169226</v>
+        <v>458182.2527220983</v>
       </c>
       <c r="AE2" t="n">
-        <v>548305.4453164736</v>
+        <v>626905.1717487634</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.733914958839803e-06</v>
+        <v>3.364797561088679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>495975.9431669943</v>
+        <v>567074.2220239952</v>
       </c>
     </row>
     <row r="3">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.6362412557237</v>
+        <v>321.5586742597459</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.1376654988218</v>
+        <v>439.9707642896842</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.1441760196514</v>
+        <v>397.980572048722</v>
       </c>
       <c r="AD3" t="n">
-        <v>275636.2412557238</v>
+        <v>321558.6742597459</v>
       </c>
       <c r="AE3" t="n">
-        <v>377137.6654988218</v>
+        <v>439970.7642896842</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.205753423455402e-06</v>
+        <v>4.2804369970785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>341144.1760196514</v>
+        <v>397980.572048722</v>
       </c>
     </row>
     <row r="4">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.5834075072986</v>
+        <v>279.5910918573442</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.5991231239876</v>
+        <v>382.5488665676535</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.0970313733156</v>
+        <v>346.0389396531422</v>
       </c>
       <c r="AD4" t="n">
-        <v>233583.4075072986</v>
+        <v>279591.0918573441</v>
       </c>
       <c r="AE4" t="n">
-        <v>319599.1231239876</v>
+        <v>382548.8665676535</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.381681923528087e-06</v>
+        <v>4.621840008196564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.730324074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>289097.0313733156</v>
+        <v>346038.9396531422</v>
       </c>
     </row>
     <row r="5">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.1368768272229</v>
+        <v>256.7919865852548</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.9374748622224</v>
+        <v>351.3541249086777</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.9301088403868</v>
+        <v>317.8213803561099</v>
       </c>
       <c r="AD5" t="n">
-        <v>222136.8768272229</v>
+        <v>256791.9865852548</v>
       </c>
       <c r="AE5" t="n">
-        <v>303937.4748622224</v>
+        <v>351354.1249086777</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437628959130547e-06</v>
+        <v>4.730409605560935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>274930.1088403868</v>
+        <v>317821.3803561099</v>
       </c>
     </row>
     <row r="6">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.7707541405099</v>
+        <v>256.4258638985418</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.436529650069</v>
+        <v>350.8531796965244</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.4769731362002</v>
+        <v>317.3682446519232</v>
       </c>
       <c r="AD6" t="n">
-        <v>221770.7541405099</v>
+        <v>256425.8638985418</v>
       </c>
       <c r="AE6" t="n">
-        <v>303436.529650069</v>
+        <v>350853.1796965243</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445439386873069e-06</v>
+        <v>4.745566351331605e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.553819444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>274476.9731362002</v>
+        <v>317368.2446519232</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.6099537016704</v>
+        <v>588.6294480768645</v>
       </c>
       <c r="AB2" t="n">
-        <v>723.2674592798966</v>
+        <v>805.3887793572512</v>
       </c>
       <c r="AC2" t="n">
-        <v>654.2398280784771</v>
+        <v>728.5236046256457</v>
       </c>
       <c r="AD2" t="n">
-        <v>528609.9537016704</v>
+        <v>588629.4480768645</v>
       </c>
       <c r="AE2" t="n">
-        <v>723267.4592798966</v>
+        <v>805388.7793572512</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.462946146031794e-06</v>
+        <v>2.745060780216937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55844907407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>654239.8280784771</v>
+        <v>728523.6046256457</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.6418284407314</v>
+        <v>380.5891512572293</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.1352247943624</v>
+        <v>520.738867158488</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.6977577262876</v>
+        <v>471.0402805384714</v>
       </c>
       <c r="AD3" t="n">
-        <v>332641.8284407314</v>
+        <v>380589.1512572293</v>
       </c>
       <c r="AE3" t="n">
-        <v>455135.2247943624</v>
+        <v>520738.867158488</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9767681477723e-06</v>
+        <v>3.709192391497568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>411697.7577262876</v>
+        <v>471040.2805384715</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>293.0620011935681</v>
+        <v>329.0225828144926</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.9803590160518</v>
+        <v>450.1832132586944</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.7113563310274</v>
+        <v>407.2183592213919</v>
       </c>
       <c r="AD4" t="n">
-        <v>293062.0011935681</v>
+        <v>329022.5828144926</v>
       </c>
       <c r="AE4" t="n">
-        <v>400980.3590160518</v>
+        <v>450183.2132586944</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174855977448075e-06</v>
+        <v>4.080882855809059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.100694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>362711.3563310275</v>
+        <v>407218.359221392</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.7044772107245</v>
+        <v>306.5664591726507</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.970878955743</v>
+        <v>419.457754197671</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.1883950694551</v>
+        <v>379.4252948496999</v>
       </c>
       <c r="AD5" t="n">
-        <v>258704.4772107245</v>
+        <v>306566.4591726507</v>
       </c>
       <c r="AE5" t="n">
-        <v>353970.878955743</v>
+        <v>419457.754197671</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.284762428890389e-06</v>
+        <v>4.28711046723923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.75925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>320188.395069455</v>
+        <v>379425.2948496999</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.8541580507955</v>
+        <v>279.8999910177436</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.6520171311279</v>
+        <v>382.9715160265812</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.8087368997795</v>
+        <v>346.4212520409021</v>
       </c>
       <c r="AD6" t="n">
-        <v>243854.1580507955</v>
+        <v>279899.9910177436</v>
       </c>
       <c r="AE6" t="n">
-        <v>333652.0171311279</v>
+        <v>382971.5160265812</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.348763320235378e-06</v>
+        <v>4.407201242423675e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.576967592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>301808.7368997795</v>
+        <v>346421.252040902</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>241.1484379702015</v>
+        <v>277.1942709371496</v>
       </c>
       <c r="AB7" t="n">
-        <v>329.9499315489156</v>
+        <v>379.2694304443669</v>
       </c>
       <c r="AC7" t="n">
-        <v>298.4599731696225</v>
+        <v>343.0724883107445</v>
       </c>
       <c r="AD7" t="n">
-        <v>241148.4379702015</v>
+        <v>277194.2709371495</v>
       </c>
       <c r="AE7" t="n">
-        <v>329949.9315489156</v>
+        <v>379269.4304443669</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.357677539463579e-06</v>
+        <v>4.423927814113252e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>298459.9731696225</v>
+        <v>343072.4883107445</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>241.9744167529421</v>
+        <v>278.0202497198902</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.0800721590729</v>
+        <v>380.3995710545249</v>
       </c>
       <c r="AC8" t="n">
-        <v>299.4822547461091</v>
+        <v>344.0947698872313</v>
       </c>
       <c r="AD8" t="n">
-        <v>241974.4167529421</v>
+        <v>278020.2497198902</v>
       </c>
       <c r="AE8" t="n">
-        <v>331080.0721590728</v>
+        <v>380399.5710545249</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.357570782347073e-06</v>
+        <v>4.423727495889424e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.550925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>299482.2547461091</v>
+        <v>344094.7698872313</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.414351565209</v>
+        <v>219.1299755268037</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.2731663126568</v>
+        <v>299.8232998478678</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.628148334826</v>
+        <v>271.2085849151201</v>
       </c>
       <c r="AD2" t="n">
-        <v>173414.351565209</v>
+        <v>219129.9755268037</v>
       </c>
       <c r="AE2" t="n">
-        <v>237273.1663126568</v>
+        <v>299823.2998478678</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.294622257224747e-06</v>
+        <v>5.738676127510642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.648726851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>214628.148334826</v>
+        <v>271208.5849151201</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6175360553111</v>
+        <v>303.8733239526828</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.5884104651063</v>
+        <v>415.7728877769703</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.556113045293</v>
+        <v>376.0921069084485</v>
       </c>
       <c r="AD2" t="n">
-        <v>260617.5360553111</v>
+        <v>303873.3239526828</v>
       </c>
       <c r="AE2" t="n">
-        <v>356588.4104651063</v>
+        <v>415772.8877769703</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.171096233223864e-06</v>
+        <v>4.470902559062734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.835648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>322556.113045293</v>
+        <v>376092.1069084485</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.7222142982927</v>
+        <v>239.8926613410922</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.1640123743782</v>
+        <v>328.2317225640141</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.4753768075103</v>
+        <v>296.9057476387183</v>
       </c>
       <c r="AD3" t="n">
-        <v>196722.2142982927</v>
+        <v>239892.6613410922</v>
       </c>
       <c r="AE3" t="n">
-        <v>269164.0123743782</v>
+        <v>328231.7225640141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54263581227601e-06</v>
+        <v>5.236007868241377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>243475.3768075103</v>
+        <v>296905.7476387182</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.964588581027</v>
+        <v>240.1350356238265</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.4956395608138</v>
+        <v>328.5633497504498</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.7753539607143</v>
+        <v>297.2057247919222</v>
       </c>
       <c r="AD4" t="n">
-        <v>196964.588581027</v>
+        <v>240135.0356238265</v>
       </c>
       <c r="AE4" t="n">
-        <v>269495.6395608138</v>
+        <v>328563.3497504498</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.545457631863748e-06</v>
+        <v>5.241818794640202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.684027777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>243775.3539607142</v>
+        <v>297205.7247919222</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.6720625270129</v>
+        <v>395.8932583163091</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.7543012232513</v>
+        <v>541.6786216062733</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.398803001262</v>
+        <v>489.9815742108901</v>
       </c>
       <c r="AD2" t="n">
-        <v>339672.0625270129</v>
+        <v>395893.2583163091</v>
       </c>
       <c r="AE2" t="n">
-        <v>464754.3012232513</v>
+        <v>541678.6216062732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891463967146809e-06</v>
+        <v>3.747338359720974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>420398.803001262</v>
+        <v>489981.5742108901</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.7484683527358</v>
+        <v>282.5324798476107</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.3486284079708</v>
+        <v>386.5734033808158</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.8662329951156</v>
+        <v>349.6793803213292</v>
       </c>
       <c r="AD3" t="n">
-        <v>248748.4683527358</v>
+        <v>282532.4798476106</v>
       </c>
       <c r="AE3" t="n">
-        <v>340348.6284079708</v>
+        <v>386573.4033808158</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330058565310093e-06</v>
+        <v>4.616275009115846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.028356481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>307866.2329951156</v>
+        <v>349679.3803213292</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.7273213184862</v>
+        <v>257.6872097790081</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.0629058948839</v>
+        <v>352.5790087768303</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.284270665716</v>
+        <v>318.9293630270217</v>
       </c>
       <c r="AD4" t="n">
-        <v>212727.3213184862</v>
+        <v>257687.2097790081</v>
       </c>
       <c r="AE4" t="n">
-        <v>291062.9058948839</v>
+        <v>352579.0087768303</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.480048975057506e-06</v>
+        <v>4.913433625827216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>263284.270665716</v>
+        <v>318929.3630270218</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.3431882309312</v>
+        <v>246.212451071823</v>
       </c>
       <c r="AB5" t="n">
-        <v>290.5373180577357</v>
+        <v>336.8787376830414</v>
       </c>
       <c r="AC5" t="n">
-        <v>262.8088441940779</v>
+        <v>304.7275037709501</v>
       </c>
       <c r="AD5" t="n">
-        <v>212343.1882309312</v>
+        <v>246212.451071823</v>
       </c>
       <c r="AE5" t="n">
-        <v>290537.3180577357</v>
+        <v>336878.7376830414</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485256189282699e-06</v>
+        <v>4.923750075916819e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>262808.8441940779</v>
+        <v>304727.5037709501</v>
       </c>
     </row>
   </sheetData>
